--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/9 PRUEBA DE INGRESOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/1 CAJA Y BANCOS/9 PRUEBA DE INGRESOS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\1 CAJA Y BANCOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F864B5-ABD8-4B5A-8D35-1DD135FE7835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A743E1C-6DE9-4945-94E6-AF8646DEEE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
   <si>
     <t>2. Facturas a nombre del cliente</t>
   </si>
@@ -116,13 +116,7 @@
     <t xml:space="preserve">                                                      Auditor </t>
   </si>
   <si>
-    <t xml:space="preserve">                Entidad XXXXXXXX</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Auditoria de Estados Financieros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    PRUEBA DE INGRESOS</t>
   </si>
   <si>
     <t>5. Ingresos operados contablemente</t>
@@ -273,9 +267,6 @@
     <t xml:space="preserve">MONTO </t>
   </si>
   <si>
-    <t xml:space="preserve">                                                        Del 01 de Enero al 31 de Diciembre de 2024</t>
-  </si>
-  <si>
     <t>9. Revisión de inconsistencia en documentación, fechas incorrectas, montos no coinciden o falta de firmas</t>
   </si>
   <si>
@@ -286,13 +277,25 @@
   </si>
   <si>
     <t>A-9</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>PRUEBA DE INGRESOS</t>
+  </si>
+  <si>
+    <t>Logo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -391,12 +394,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -596,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -636,12 +633,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -651,54 +644,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="18" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="17" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -708,12 +698,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,73 +1348,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE15895-896F-45F4-90F3-B8E365BCEA2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809625" y="409575"/>
-          <a:ext cx="1304925" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -1879,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1910,73 +1845,67 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="25"/>
-    </row>
-    <row r="2" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="62" t="s">
+        <v>73</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="63" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="3" spans="2:25" ht="15" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="35"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="31"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="2:25" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="35"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="X4" s="58" t="s">
+        <v>69</v>
+      </c>
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="2:25" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="31"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="1"/>
-      <c r="X5" s="60" t="s">
+      <c r="X5" s="55" t="s">
         <v>16</v>
       </c>
       <c r="Y5" s="21"/>
@@ -1987,15 +1916,14 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="16"/>
+      <c r="G6" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="17"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="1"/>
-      <c r="X6" s="60" t="s">
+      <c r="X6" s="55" t="s">
         <v>17</v>
       </c>
       <c r="Y6" s="22"/>
@@ -2007,152 +1935,130 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="1"/>
-      <c r="X7" s="60" t="s">
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="X7" s="55" t="s">
         <v>18</v>
       </c>
       <c r="Y7" s="21"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="X8" s="60" t="s">
+      <c r="X8" s="55" t="s">
         <v>17</v>
       </c>
       <c r="Y8" s="22"/>
     </row>
     <row r="9" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="38" t="s">
+      <c r="N9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="38" t="s">
+      <c r="O9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="38" t="s">
+      <c r="S9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="T9" s="38" t="s">
+      <c r="T9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="V9" s="38"/>
+      <c r="V9" s="33"/>
     </row>
     <row r="10" spans="2:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="E10" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="G10" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="58" t="s">
+      <c r="I10" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="38">
+      <c r="L10" s="33">
         <v>1</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="33">
         <v>2</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="33">
         <v>3</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="33">
         <v>4</v>
       </c>
-      <c r="P10" s="38">
+      <c r="P10" s="33">
         <v>4</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="33">
         <v>5</v>
       </c>
-      <c r="R10" s="38">
+      <c r="R10" s="33">
         <v>6</v>
       </c>
-      <c r="S10" s="38">
+      <c r="S10" s="33">
         <v>7</v>
       </c>
-      <c r="T10" s="38">
+      <c r="T10" s="33">
         <v>8</v>
       </c>
-      <c r="U10" s="38">
+      <c r="U10" s="33">
         <v>9</v>
       </c>
-      <c r="V10" s="38">
+      <c r="V10" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2161,38 +2067,38 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>41</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
         <v>42</v>
       </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
     </row>
     <row r="12" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -2201,38 +2107,38 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>48</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>49</v>
       </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
     </row>
     <row r="13" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>21</v>
@@ -2241,38 +2147,38 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>54</v>
       </c>
-      <c r="H13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" t="s">
-        <v>56</v>
-      </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+        <v>42</v>
+      </c>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
     </row>
     <row r="14" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>31</v>
@@ -2281,38 +2187,38 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
         <v>57</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>58</v>
       </c>
-      <c r="H14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>60</v>
-      </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
     </row>
     <row r="15" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>41</v>
@@ -2321,38 +2227,38 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
         <v>61</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>62</v>
       </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" t="s">
-        <v>64</v>
-      </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
+        <v>42</v>
+      </c>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
     </row>
     <row r="16" spans="2:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2361,38 +2267,38 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
         <v>40</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>41</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
         <v>42</v>
       </c>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
     </row>
     <row r="17" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -2401,38 +2307,38 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>48</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>49</v>
       </c>
-      <c r="J17" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
     </row>
     <row r="18" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>21</v>
@@ -2441,38 +2347,38 @@
         <v>30</v>
       </c>
       <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>54</v>
       </c>
-      <c r="H18" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" t="s">
-        <v>56</v>
-      </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
+        <v>42</v>
+      </c>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
     </row>
     <row r="19" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>31</v>
@@ -2481,38 +2387,38 @@
         <v>40</v>
       </c>
       <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
         <v>57</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>58</v>
       </c>
-      <c r="H19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" t="s">
-        <v>60</v>
-      </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
     </row>
     <row r="20" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20">
         <v>41</v>
@@ -2521,38 +2427,38 @@
         <v>50</v>
       </c>
       <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
         <v>61</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>62</v>
       </c>
-      <c r="H20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" t="s">
-        <v>64</v>
-      </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
+        <v>42</v>
+      </c>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
     </row>
     <row r="21" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -2561,38 +2467,38 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>41</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
         <v>42</v>
       </c>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
     </row>
     <row r="22" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -2601,38 +2507,38 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>48</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>49</v>
       </c>
-      <c r="J22" t="s">
-        <v>50</v>
-      </c>
-      <c r="K22" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
     </row>
     <row r="23" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -2641,38 +2547,38 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
         <v>40</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>41</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" t="s">
         <v>42</v>
       </c>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
     </row>
     <row r="24" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2681,38 +2587,38 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
         <v>40</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>41</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" t="s">
         <v>42</v>
       </c>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
     </row>
     <row r="25" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2721,38 +2627,38 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
         <v>40</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>41</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" t="s">
         <v>42</v>
       </c>
-      <c r="I25" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
     </row>
     <row r="26" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -2761,38 +2667,38 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>48</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>49</v>
       </c>
-      <c r="J26" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
     </row>
     <row r="27" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>21</v>
@@ -2801,38 +2707,38 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="s">
         <v>53</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>54</v>
       </c>
-      <c r="H27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" t="s">
-        <v>56</v>
-      </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
+        <v>42</v>
+      </c>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
     </row>
     <row r="28" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>31</v>
@@ -2841,38 +2747,38 @@
         <v>40</v>
       </c>
       <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" t="s">
         <v>57</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
         <v>58</v>
       </c>
-      <c r="H28" t="s">
-        <v>59</v>
-      </c>
-      <c r="I28" t="s">
-        <v>60</v>
-      </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
     </row>
     <row r="29" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>41</v>
@@ -2881,48 +2787,48 @@
         <v>50</v>
       </c>
       <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" t="s">
         <v>61</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
         <v>62</v>
       </c>
-      <c r="H29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I29" t="s">
-        <v>64</v>
-      </c>
       <c r="J29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
-      </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
+        <v>42</v>
+      </c>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
     </row>
     <row r="30" spans="2:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="47"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="42"/>
       <c r="L30" s="8"/>
       <c r="M30" s="9"/>
       <c r="N30" s="1"/>
@@ -2967,7 +2873,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="K33" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -3020,9 +2926,9 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
@@ -3044,9 +2950,9 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
@@ -3058,23 +2964,23 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="K37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
+        <v>26</v>
+      </c>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
     </row>
     <row r="38" spans="1:22" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
@@ -3083,24 +2989,24 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="K38" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
+      <c r="K38" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -3120,9 +3026,9 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="K40" s="2" t="s">
@@ -3136,50 +3042,50 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="K41" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="L41" s="61"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
+      <c r="K41" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="L41" s="56"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="K42" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
+      <c r="K42" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="K43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
+      <c r="K43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="K44" s="5"/>
@@ -3222,18 +3128,18 @@
       <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="G47" s="31" t="s">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="G47" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
       <c r="K47" s="1"/>
       <c r="L47" s="16" t="s">
         <v>4</v>
@@ -3247,27 +3153,27 @@
       <c r="Q47" s="2"/>
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="33"/>
-      <c r="I48" s="55" t="s">
-        <v>32</v>
+      <c r="H48" s="29"/>
+      <c r="I48" s="50" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="K51" s="34"/>
+      <c r="K51" s="30"/>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E53" s="51"/>
+      <c r="E53" s="46"/>
     </row>
     <row r="54" spans="5:16" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="E54" s="52"/>
+      <c r="E54" s="47"/>
     </row>
     <row r="64" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="N64" s="34"/>
-      <c r="O64" s="34"/>
-      <c r="P64" s="34"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
     </row>
     <row r="65" spans="6:16" x14ac:dyDescent="0.2">
       <c r="N65" s="15"/>
@@ -3355,6 +3261,13 @@
       <c r="I77" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C2:C5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.47244094488188981" header="0" footer="0"/>
   <pageSetup paperSize="5" scale="65" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
